--- a/data/input/absenteeism_data_28.xlsx
+++ b/data/input/absenteeism_data_28.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66522</v>
+        <v>20067</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stephany Ribeiro</t>
+          <t>Melissa Correia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>7765.27</v>
+        <v>5559.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>58575</v>
+        <v>3907</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thomas Moraes</t>
+          <t>Enzo Gabriel da Mota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>5453.5</v>
+        <v>9599.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68558</v>
+        <v>91311</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Felipe Duarte</t>
+          <t>Pietra Ramos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>5773.76</v>
+        <v>11308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19854</v>
+        <v>6555</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Davi Lucca Teixeira</t>
+          <t>Camila Sales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,56 +581,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45082</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>9058</v>
+        <v>6220.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>33847</v>
+        <v>90553</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bryan Silva</t>
+          <t>Marcelo Viana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45089</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>11391.62</v>
+        <v>5642.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25463</v>
+        <v>66897</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alexia Pereira</t>
+          <t>Bernardo Castro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,51 +639,51 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="G7" t="n">
-        <v>10105.43</v>
+        <v>6227.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20507</v>
+        <v>87539</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Carolina Fogaça</t>
+          <t>Helena da Cunha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="G8" t="n">
-        <v>10082.31</v>
+        <v>7739.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>85368</v>
+        <v>44415</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Helena Silveira</t>
+          <t>Matheus Pereira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="G9" t="n">
-        <v>6223.66</v>
+        <v>2946.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>81519</v>
+        <v>16037</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lorena Vieira</t>
+          <t>Raquel Cardoso</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45095</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>7700.17</v>
+        <v>6883.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>71119</v>
+        <v>98435</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dra. Alícia Nogueira</t>
+          <t>Alice da Rosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>5650.22</v>
+        <v>10131.43</v>
       </c>
     </row>
   </sheetData>
